--- a/QMS/combo.xlsx
+++ b/QMS/combo.xlsx
@@ -635,16 +635,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>618480</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>180</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2814120</xdr:colOff>
+      <xdr:colOff>2841120</xdr:colOff>
       <xdr:row>210</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -653,8 +653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="618480" y="34398720"/>
-          <a:ext cx="18226080" cy="5713200"/>
+          <a:off x="548640" y="34389720"/>
+          <a:ext cx="11525760" cy="5712840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -675,15 +675,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>970560</xdr:colOff>
+      <xdr:colOff>997560</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3926880</xdr:colOff>
+      <xdr:colOff>3830040</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -692,8 +692,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1732320" y="31915800"/>
-          <a:ext cx="18225000" cy="5713560"/>
+          <a:off x="1546200" y="31907160"/>
+          <a:ext cx="11517120" cy="5713200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -714,15 +714,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>461880</xdr:colOff>
+      <xdr:colOff>488880</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2657520</xdr:colOff>
+      <xdr:colOff>2684520</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -731,8 +731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="461880" y="26218440"/>
-          <a:ext cx="18226080" cy="5713200"/>
+          <a:off x="488880" y="26209800"/>
+          <a:ext cx="11428920" cy="5712840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,16 +752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4538160</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4665240</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234000</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -770,8 +770,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="11154600" cy="9524520"/>
+          <a:off x="8120160" y="28131120"/>
+          <a:ext cx="5176800" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -799,19 +799,19 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C105" activeCellId="0" sqref="C105"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E61" activeCellId="0" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="106.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.8582995951417"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.17004048582996"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.1133603238866"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.5587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.1538461538462"/>
     <col collapsed="false" hidden="true" max="6" min="6" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.5748987854251"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="65.7125506072875"/>
@@ -1392,9 +1392,11 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="0" t="e">
+      <c r="F27" s="0" t="inlineStr">
         <f aca="false">RIGHT(E27, LEN(E27)-15)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,9 +1422,11 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="0" t="e">
+      <c r="F29" s="0" t="inlineStr">
         <f aca="false">RIGHT(E29, LEN(E29)-15)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,9 +1527,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="0" t="e">
+      <c r="F34" s="0" t="inlineStr">
         <f aca="false">RIGHT(E34, LEN(E34)-15)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,7 +2902,7 @@
   </sheetPr>
   <dimension ref="D3:M26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
